--- a/src/excelExportAndFileIO/jeu_de_test_DE.xlsx
+++ b/src/excelExportAndFileIO/jeu_de_test_DE.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galinabikono\workspace\seleniumtest\src\excelExportAndFileIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galinabikono\workspace\gitlab\src\excelExportAndFileIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>43770</v>
       </c>
       <c r="Y2" s="3">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
